--- a/2024/shuffle-architecute/Teste10/content/results/metrics_1_6.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_1_6.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9500883459766415</v>
+        <v>0.9619590289112196</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7534058596469159</v>
+        <v>0.7720718832055951</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9580295614400978</v>
+        <v>0.9061621558325051</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9507736559447943</v>
+        <v>0.9226661890775457</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9641943353200761</v>
+        <v>0.929865903763473</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2094685137271881</v>
+        <v>0.1596498042345047</v>
       </c>
       <c r="H2" t="n">
-        <v>1.64897632598877</v>
+        <v>1.524156332015991</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1921596080064774</v>
+        <v>0.1767394989728928</v>
       </c>
       <c r="J2" t="n">
-        <v>0.113627165555954</v>
+        <v>0.07117138803005219</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1528933644294739</v>
+        <v>0.1239554062485695</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9494452892847988</v>
+        <v>0.9615338144197769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7530295257386592</v>
+        <v>0.7718675486207205</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9586229099104697</v>
+        <v>0.9080012827265673</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9511236401846965</v>
+        <v>0.923329913852153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9646070235589469</v>
+        <v>0.9310186722068637</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2121672779321671</v>
+        <v>0.1614343523979187</v>
       </c>
       <c r="H3" t="n">
-        <v>1.651492595672607</v>
+        <v>1.525522708892822</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1894429922103882</v>
+        <v>0.1732755899429321</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1128193065524101</v>
+        <v>0.07056055963039398</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1511311531066895</v>
+        <v>0.1219179928302765</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9487859557633512</v>
+        <v>0.9610959266529249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7526457045270991</v>
+        <v>0.7716562520916816</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9592134758252768</v>
+        <v>0.9098177369429644</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9514746350260959</v>
+        <v>0.9240154491160838</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9650185021942073</v>
+        <v>0.9321649726398765</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2149343937635422</v>
+        <v>0.1632720828056335</v>
       </c>
       <c r="H4" t="n">
-        <v>1.654059410095215</v>
+        <v>1.526935696601868</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1867391169071198</v>
+        <v>0.1698543727397919</v>
       </c>
       <c r="J4" t="n">
-        <v>0.11200912296772</v>
+        <v>0.06992964446544647</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1493740975856781</v>
+        <v>0.1198920235037804</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.948109886794438</v>
+        <v>0.9606450740819106</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7522541980850947</v>
+        <v>0.7714378742113162</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9598007123813557</v>
+        <v>0.9116112803918791</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9518267052265691</v>
+        <v>0.9247220595961179</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9654284796074607</v>
+        <v>0.933304653309927</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2177717089653015</v>
+        <v>0.1651642024517059</v>
       </c>
       <c r="H5" t="n">
-        <v>1.65667724609375</v>
+        <v>1.528396010398865</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1840504705905914</v>
+        <v>0.166476309299469</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1111964508891106</v>
+        <v>0.06927934288978577</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1476234644651413</v>
+        <v>0.1178777366876602</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9474167421523246</v>
+        <v>0.9601809902648275</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7518547524261443</v>
+        <v>0.771212181164004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9603845935416709</v>
+        <v>0.9133815301022558</v>
       </c>
       <c r="E6" t="n">
-        <v>0.952180136445707</v>
+        <v>0.9254500302197692</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9658370283182169</v>
+        <v>0.9344373921184425</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2206806987524033</v>
+        <v>0.1671118587255478</v>
       </c>
       <c r="H6" t="n">
-        <v>1.659348487854004</v>
+        <v>1.529905200004578</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1813772022724152</v>
+        <v>0.1631421148777008</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1103806421160698</v>
+        <v>0.06860937923192978</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1458789259195328</v>
+        <v>0.1158757358789444</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.946706144231474</v>
+        <v>0.9597034206174978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7514471557498295</v>
+        <v>0.7709789879171733</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9609645596879559</v>
+        <v>0.9151283837177243</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9525350371171466</v>
+        <v>0.9261988865837697</v>
       </c>
       <c r="F7" t="n">
-        <v>0.966243882744219</v>
+        <v>0.9355631194205306</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2236629277467728</v>
+        <v>0.1691161096096039</v>
       </c>
       <c r="H7" t="n">
-        <v>1.662074089050293</v>
+        <v>1.531464576721191</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1787218451499939</v>
+        <v>0.159851998090744</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1095614358782768</v>
+        <v>0.06792020052671432</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1441416293382645</v>
+        <v>0.1138861104846001</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9459777443019144</v>
+        <v>0.9592120489805618</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7510310887991943</v>
+        <v>0.7707381650715546</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9615405996578487</v>
+        <v>0.916851548508956</v>
       </c>
       <c r="E8" t="n">
-        <v>0.952891765223193</v>
+        <v>0.9269686915841604</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9666491213346735</v>
+        <v>0.9366817229069058</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2267198413610458</v>
+        <v>0.1711782962083817</v>
       </c>
       <c r="H8" t="n">
-        <v>1.664856195449829</v>
+        <v>1.533074975013733</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1760844886302948</v>
+        <v>0.1566064953804016</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1087380200624466</v>
+        <v>0.06721173971891403</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1424112170934677</v>
+        <v>0.1119090914726257</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9452311649791553</v>
+        <v>0.9587066156224067</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7506063422534498</v>
+        <v>0.7704894792288464</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9621123112249252</v>
+        <v>0.9185510081582688</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9532501910469555</v>
+        <v>0.9277587669394993</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9670524843961257</v>
+        <v>0.937792952659287</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2298530787229538</v>
+        <v>0.1732994914054871</v>
       </c>
       <c r="H9" t="n">
-        <v>1.667696475982666</v>
+        <v>1.534737825393677</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1734669357538223</v>
+        <v>0.153405636548996</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1079106777906418</v>
+        <v>0.06648462265729904</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1406888216733932</v>
+        <v>0.1099450886249542</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9444658997732994</v>
+        <v>0.9581868371392966</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7501725853626613</v>
+        <v>0.7702327792473864</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9626792153865633</v>
+        <v>0.9202264192526243</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9536108670452065</v>
+        <v>0.9285688497195622</v>
       </c>
       <c r="F10" t="n">
-        <v>0.967453898747939</v>
+        <v>0.9388966198636497</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2330647259950638</v>
+        <v>0.1754809021949768</v>
       </c>
       <c r="H10" t="n">
-        <v>1.670597076416016</v>
+        <v>1.536454439163208</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1708713918924332</v>
+        <v>0.1502500772476196</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1070781424641609</v>
+        <v>0.06573908776044846</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1389747560024261</v>
+        <v>0.1079944670200348</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9436816306575002</v>
+        <v>0.9576524419642581</v>
       </c>
       <c r="C11" t="n">
-        <v>0.749729563740416</v>
+        <v>0.7699678294136025</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9632411993622263</v>
+        <v>0.9218779422492304</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9539738056247713</v>
+        <v>0.929398568354312</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9678532743745903</v>
+        <v>0.9399925597388376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2363561391830444</v>
+        <v>0.1777236312627792</v>
       </c>
       <c r="H11" t="n">
-        <v>1.673559665679932</v>
+        <v>1.538226127624512</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1682983636856079</v>
+        <v>0.1471394896507263</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1062403917312622</v>
+        <v>0.06497548520565033</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1372693777084351</v>
+        <v>0.1060574948787689</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9428778726382542</v>
+        <v>0.9571030149196389</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7492769471262446</v>
+        <v>0.7696944366437801</v>
       </c>
       <c r="D12" t="n">
-        <v>0.963797587511195</v>
+        <v>0.9235051118469076</v>
       </c>
       <c r="E12" t="n">
-        <v>0.954339440520198</v>
+        <v>0.9302469160012616</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9682503849116104</v>
+        <v>0.9410804080100229</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2397293597459793</v>
+        <v>0.1800294667482376</v>
       </c>
       <c r="H12" t="n">
-        <v>1.676586270332336</v>
+        <v>1.540054321289062</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1657509654760361</v>
+        <v>0.1440747976303101</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1053964048624039</v>
+        <v>0.06419473886489868</v>
       </c>
       <c r="K12" t="n">
-        <v>0.13557368516922</v>
+        <v>0.1041348278522491</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9420541599776816</v>
+        <v>0.9565382969497248</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7488144327972825</v>
+        <v>0.7694124190468725</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9643483505672319</v>
+        <v>0.9251079547473178</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9547076129644685</v>
+        <v>0.9311135649569761</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9686451640963422</v>
+        <v>0.9421601003018678</v>
       </c>
       <c r="G13" t="n">
-        <v>0.24318628013134</v>
+        <v>0.1823994666337967</v>
       </c>
       <c r="H13" t="n">
-        <v>1.679679036140442</v>
+        <v>1.541940212249756</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1632293462753296</v>
+        <v>0.1410559117794037</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1045465692877769</v>
+        <v>0.06339715421199799</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1338879466056824</v>
+        <v>0.1022265702486038</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9412101207599983</v>
+        <v>0.9559580019892188</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7483416655463253</v>
+        <v>0.769121536754212</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9648927565311332</v>
+        <v>0.9266864805927275</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9550790904659958</v>
+        <v>0.9319974768027538</v>
       </c>
       <c r="F14" t="n">
-        <v>0.969037425061549</v>
+        <v>0.9432312927823697</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2467285394668579</v>
+        <v>0.1848348379135132</v>
       </c>
       <c r="H14" t="n">
-        <v>1.682840585708618</v>
+        <v>1.543885350227356</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1607367843389511</v>
+        <v>0.1380828320980072</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1036891043186188</v>
+        <v>0.06258367747068405</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1322129517793655</v>
+        <v>0.1003333404660225</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9403452137511064</v>
+        <v>0.9553617605913987</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7478582691871611</v>
+        <v>0.7688215783919188</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9654303901198169</v>
+        <v>0.9282406713347914</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9554538073593867</v>
+        <v>0.9328979655630563</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9694269255961582</v>
+        <v>0.9442939301065297</v>
       </c>
       <c r="G15" t="n">
-        <v>0.250358372926712</v>
+        <v>0.1873371452093124</v>
       </c>
       <c r="H15" t="n">
-        <v>1.686072945594788</v>
+        <v>1.545891284942627</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1582752615213394</v>
+        <v>0.1351555734872818</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1028241589665413</v>
+        <v>0.06175494194030762</v>
       </c>
       <c r="K15" t="n">
-        <v>0.130549743771553</v>
+        <v>0.09845523536205292</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9394590372341393</v>
+        <v>0.9547491866142326</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7473639119800137</v>
+        <v>0.7685122910392458</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9659610886335975</v>
+        <v>0.9297702181737362</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9558319894892119</v>
+        <v>0.9338136901253897</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9698136528490856</v>
+        <v>0.9453472867094143</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2540774941444397</v>
+        <v>0.189907968044281</v>
       </c>
       <c r="H16" t="n">
-        <v>1.68937873840332</v>
+        <v>1.547959446907043</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1558454930782318</v>
+        <v>0.1322747468948364</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1019512191414833</v>
+        <v>0.06091218814253807</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1288983970880508</v>
+        <v>0.09659352153539658</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.93855103287977</v>
+        <v>0.9541200355113656</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7468582086305781</v>
+        <v>0.7681934892182615</v>
       </c>
       <c r="D17" t="n">
-        <v>0.966483940452055</v>
+        <v>0.9312752785999188</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9562142323830927</v>
+        <v>0.9347440956597389</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9701972749106677</v>
+        <v>0.9463915165727604</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2578881680965424</v>
+        <v>0.1925483644008636</v>
       </c>
       <c r="H17" t="n">
-        <v>1.692760467529297</v>
+        <v>1.55009126663208</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1534516364336014</v>
+        <v>0.1294400244951248</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1010688990354538</v>
+        <v>0.060055922716856</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1272602826356888</v>
+        <v>0.09474794566631317</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9376207718938276</v>
+        <v>0.9534738459930832</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7463407412630745</v>
+        <v>0.7678648598473141</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9669986422589868</v>
+        <v>0.9327560909503937</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9566005486495915</v>
+        <v>0.9356873658931614</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9705776330149779</v>
+        <v>0.9474261014997134</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2617922723293304</v>
+        <v>0.195260301232338</v>
       </c>
       <c r="H18" t="n">
-        <v>1.696220636367798</v>
+        <v>1.552288770675659</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1510951071977615</v>
+        <v>0.1266509890556335</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1001771837472916</v>
+        <v>0.05918781831860542</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1256361305713654</v>
+        <v>0.09291940927505493</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9366676578700628</v>
+        <v>0.9528102939984217</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7458110943385141</v>
+        <v>0.7675261669075009</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9675046808145946</v>
+        <v>0.9342122570489924</v>
       </c>
       <c r="E19" t="n">
-        <v>0.95699127297039</v>
+        <v>0.9366420334860681</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9709545237120762</v>
+        <v>0.9484505482064106</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2657922804355621</v>
+        <v>0.1980451047420502</v>
       </c>
       <c r="H19" t="n">
-        <v>1.699762344360352</v>
+        <v>1.554553627967834</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1487782150506973</v>
+        <v>0.1239083558320999</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09927529096603394</v>
+        <v>0.05830922722816467</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1240267604589462</v>
+        <v>0.09110879898071289</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9356912197746353</v>
+        <v>0.9521289642593276</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7452687970688149</v>
+        <v>0.7671771705958446</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9680013522162798</v>
+        <v>0.9356441266133121</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9573868125516209</v>
+        <v>0.9376069042395992</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9713276995700305</v>
+        <v>0.9494646825418342</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2698901891708374</v>
+        <v>0.2009045034646988</v>
       </c>
       <c r="H20" t="n">
-        <v>1.703388690948486</v>
+        <v>1.55688738822937</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1465042233467102</v>
+        <v>0.1212114915251732</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0983622819185257</v>
+        <v>0.0574212372303009</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1224332675337791</v>
+        <v>0.08931641280651093</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9346908552920922</v>
+        <v>0.9514294763582758</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7447134093263255</v>
+        <v>0.7668176198295389</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9684881840596724</v>
+        <v>0.9370518084279008</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9577872715904444</v>
+        <v>0.9385800967182336</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9716969332292728</v>
+        <v>0.9504681485853986</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2740885019302368</v>
+        <v>0.2038400769233704</v>
       </c>
       <c r="H21" t="n">
-        <v>1.707102656364441</v>
+        <v>1.55929160118103</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1442753076553345</v>
+        <v>0.1185601800680161</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09743791818618774</v>
+        <v>0.05652559921145439</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1208566129207611</v>
+        <v>0.08754288405179977</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9336660786264357</v>
+        <v>0.9507114468154766</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7441444532628172</v>
+        <v>0.7664472059478129</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9689643599095488</v>
+        <v>0.9384348673545673</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9581932406719252</v>
+        <v>0.9395595481367784</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9720619402245292</v>
+        <v>0.951460111282034</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2783892750740051</v>
+        <v>0.206853523850441</v>
       </c>
       <c r="H22" t="n">
-        <v>1.710907220840454</v>
+        <v>1.561768651008606</v>
       </c>
       <c r="I22" t="n">
-        <v>0.142095148563385</v>
+        <v>0.1159552484750748</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09650083631277084</v>
+        <v>0.05562419444322586</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1192979961633682</v>
+        <v>0.08578968048095703</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9326162459449407</v>
+        <v>0.9499744245350278</v>
       </c>
       <c r="C23" t="n">
-        <v>0.743561408489138</v>
+        <v>0.7660656316696687</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9694293564507442</v>
+        <v>0.9397942220046464</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9586046410177654</v>
+        <v>0.9405432008706504</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9724224207414718</v>
+        <v>0.9524404920575015</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2827951908111572</v>
+        <v>0.2099466323852539</v>
       </c>
       <c r="H23" t="n">
-        <v>1.714806079864502</v>
+        <v>1.564320206642151</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1399661898612976</v>
+        <v>0.1133949607610703</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09555122256278992</v>
+        <v>0.05471892654895782</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1177587136626244</v>
+        <v>0.08405694365501404</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9315407740879175</v>
+        <v>0.949218005101528</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7429637320617679</v>
+        <v>0.7656726130146676</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9698822077257845</v>
+        <v>0.9411294713587369</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9590221343757563</v>
+        <v>0.9415285200683379</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9727780471507239</v>
+        <v>0.9534084833851428</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2873087227344513</v>
+        <v>0.21312116086483</v>
       </c>
       <c r="H24" t="n">
-        <v>1.718802809715271</v>
+        <v>1.566948413848877</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1378928422927856</v>
+        <v>0.1108800768852234</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0945875346660614</v>
+        <v>0.05381212383508682</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1162401586771011</v>
+        <v>0.0823461189866066</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.930439045802305</v>
+        <v>0.9484417369330852</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7423509082980709</v>
+        <v>0.7652678245405218</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9703222456711342</v>
+        <v>0.9424408528885621</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9594460097845834</v>
+        <v>0.9425137254717176</v>
       </c>
       <c r="F25" t="n">
-        <v>0.973128516247125</v>
+        <v>0.9543637237345365</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2919324338436127</v>
+        <v>0.2163789719343185</v>
       </c>
       <c r="H25" t="n">
-        <v>1.722900629043579</v>
+        <v>1.569655179977417</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1358781307935715</v>
+        <v>0.1084101498126984</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09360912442207336</v>
+        <v>0.05290542542934418</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1147436201572418</v>
+        <v>0.08065782487392426</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9293104596250742</v>
+        <v>0.947645103854479</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7417223032930655</v>
+        <v>0.7648509416525238</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9707488050647023</v>
+        <v>0.9437284598027001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9598763421391077</v>
+        <v>0.9434950342850832</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9734735073329097</v>
+        <v>0.9553052902589915</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2966688871383667</v>
+        <v>0.2197222858667374</v>
       </c>
       <c r="H26" t="n">
-        <v>1.727104187011719</v>
+        <v>1.572442770004272</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1339251548051834</v>
+        <v>0.1059850007295609</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09261579811573029</v>
+        <v>0.05200231075286865</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1132704764604568</v>
+        <v>0.07899368554353714</v>
       </c>
     </row>
   </sheetData>
